--- a/doc/doc.xlsx
+++ b/doc/doc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\software engineering\sol\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510AD68C-AFFF-4546-9236-E08D25C4CFA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38ADE65-126D-4EAC-A042-9E31872106CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1161,9 +1161,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="466794" cy="283411"/>
     <xdr:sp macro="" textlink="">
@@ -1179,7 +1179,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7787640" y="7383780"/>
+          <a:off x="7795260" y="8244840"/>
           <a:ext cx="466794" cy="283411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">

--- a/doc/doc.xlsx
+++ b/doc/doc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\software engineering\sol\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38ADE65-126D-4EAC-A042-9E31872106CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4CA581-71A3-427F-8C5B-FD2C3679334F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2397,7 +2397,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X46" sqref="X46"/>
+      <selection activeCell="T55" sqref="T55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
